--- a/results/mp/tinybert/toy-spam/confidence/42/stop-words-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/42/stop-words-0.15/avg_0.002_scores.xlsx
@@ -52,261 +52,264 @@
     <t>thin</t>
   </si>
   <si>
-    <t>trash</t>
+    <t>ripped</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>loose</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>disappointed</t>
   </si>
   <si>
     <t>crap</t>
   </si>
   <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>loose</t>
-  </si>
-  <si>
     <t>returned</t>
   </si>
   <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>disappointed</t>
+    <t>unfortunately</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>tiny</t>
+  </si>
+  <si>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>smaller</t>
   </si>
   <si>
     <t>probably</t>
   </si>
   <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>ripped</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>instead</t>
-  </si>
-  <si>
-    <t>tiny</t>
+    <t>low</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>lasted</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>un</t>
   </si>
   <si>
     <t>guess</t>
   </si>
   <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>pool</t>
-  </si>
-  <si>
     <t>short</t>
   </si>
   <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>wrong</t>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>fell</t>
+  </si>
+  <si>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>difficult</t>
   </si>
   <si>
     <t>tried</t>
   </si>
   <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>might</t>
-  </si>
-  <si>
-    <t>fell</t>
-  </si>
-  <si>
-    <t>lasted</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>di</t>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
   <si>
     <t>half</t>
   </si>
   <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>cheap</t>
+    <t>though</t>
+  </si>
+  <si>
+    <t>size</t>
   </si>
   <si>
     <t>pay</t>
   </si>
   <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>sound</t>
+  </si>
+  <si>
     <t>bit</t>
   </si>
   <si>
-    <t>fl</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>though</t>
-  </si>
-  <si>
-    <t>sound</t>
-  </si>
-  <si>
-    <t>minutes</t>
-  </si>
-  <si>
-    <t>color</t>
+    <t>seems</t>
+  </si>
+  <si>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>worked</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>back</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>seems</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>would</t>
+    <t>work</t>
+  </si>
+  <si>
+    <t>need</t>
   </si>
   <si>
     <t>hard</t>
   </si>
   <si>
-    <t>nothing</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>fit</t>
+    <t>used</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>work</t>
+    <t>product</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>look</t>
   </si>
   <si>
     <t>could</t>
   </si>
   <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>need</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>put</t>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>pieces</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
   <si>
     <t>use</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>expected</t>
-  </si>
-  <si>
-    <t>pieces</t>
+    <t>even</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>little</t>
   </si>
   <si>
     <t>buy</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>little</t>
+    <t>made</t>
   </si>
   <si>
     <t>much</t>
   </si>
   <si>
-    <t>made</t>
+    <t>toy</t>
   </si>
   <si>
     <t>one</t>
   </si>
   <si>
-    <t>toy</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>fantastic</t>
-  </si>
-  <si>
     <t>amazing</t>
   </si>
   <si>
+    <t>enjoyable</t>
+  </si>
+  <si>
     <t>favorite</t>
   </si>
   <si>
@@ -340,22 +343,19 @@
     <t>friends</t>
   </si>
   <si>
-    <t>learn</t>
-  </si>
-  <si>
     <t>christmas</t>
   </si>
   <si>
+    <t>fun</t>
+  </si>
+  <si>
     <t>enjoy</t>
   </si>
   <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
     <t>game</t>
+  </si>
+  <si>
+    <t>play</t>
   </si>
   <si>
     <t>positive</t>
@@ -716,7 +716,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q86"/>
+  <dimension ref="A1:Q87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -724,7 +724,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J1" t="s">
         <v>114</v>
@@ -785,13 +785,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9565217391304348</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="C3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -803,19 +803,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K3">
-        <v>0.875</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L3">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="M3">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -835,13 +835,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8181818181818182</v>
+        <v>0.8863636363636364</v>
       </c>
       <c r="C4">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -853,19 +853,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K4">
-        <v>0.8153846153846154</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L4">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="M4">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -906,16 +906,16 @@
         <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K5">
-        <v>0.75</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L5">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M5">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -956,16 +956,16 @@
         <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K6">
-        <v>0.7407407407407407</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L6">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M6">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -985,13 +985,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7894736842105263</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1003,19 +1003,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K7">
-        <v>0.6774193548387096</v>
+        <v>0.6236559139784946</v>
       </c>
       <c r="L7">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="M7">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1027,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1035,13 +1035,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7619047619047619</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="C8">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="D8">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1053,19 +1053,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K8">
-        <v>0.5849056603773585</v>
+        <v>0.5471698113207547</v>
       </c>
       <c r="L8">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M8">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1085,13 +1085,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.75</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="C9">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="D9">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K9">
         <v>0.5</v>
@@ -1135,37 +1135,37 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7391304347826086</v>
+        <v>0.734375</v>
       </c>
       <c r="C10">
+        <v>47</v>
+      </c>
+      <c r="D10">
+        <v>47</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>17</v>
       </c>
-      <c r="D10">
-        <v>17</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>6</v>
-      </c>
       <c r="J10" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K10">
-        <v>0.3768115942028986</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="L10">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M10">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1185,13 +1185,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7368421052631579</v>
+        <v>0.7330097087378641</v>
       </c>
       <c r="C11">
-        <v>28</v>
+        <v>151</v>
       </c>
       <c r="D11">
-        <v>28</v>
+        <v>151</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1203,19 +1203,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K11">
-        <v>0.3319672131147541</v>
+        <v>0.3418032786885246</v>
       </c>
       <c r="L11">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="M11">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1227,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>815</v>
+        <v>803</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1235,13 +1235,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7330097087378641</v>
+        <v>0.7204301075268817</v>
       </c>
       <c r="C12">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="D12">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1253,19 +1253,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K12">
-        <v>0.2840746054519369</v>
+        <v>0.296987087517934</v>
       </c>
       <c r="L12">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="M12">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1277,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1285,13 +1285,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7183098591549296</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C13">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="D13">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1303,19 +1303,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K13">
-        <v>0.2655601659751037</v>
+        <v>0.2385892116182573</v>
       </c>
       <c r="L13">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="M13">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1327,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>354</v>
+        <v>367</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1335,13 +1335,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7150537634408602</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="C14">
-        <v>133</v>
+        <v>27</v>
       </c>
       <c r="D14">
-        <v>133</v>
+        <v>27</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K14">
         <v>0.2333333333333333</v>
@@ -1385,13 +1385,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6842105263157895</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="C15">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D15">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1403,19 +1403,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K15">
-        <v>0.2108433734939759</v>
+        <v>0.1867469879518072</v>
       </c>
       <c r="L15">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M15">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1435,13 +1435,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6486486486486487</v>
+        <v>0.68</v>
       </c>
       <c r="C16">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="D16">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1453,19 +1453,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K16">
-        <v>0.1773700305810398</v>
+        <v>0.1834862385321101</v>
       </c>
       <c r="L16">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M16">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1477,7 +1477,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1485,13 +1485,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6296296296296297</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="C17">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="D17">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1503,19 +1503,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K17">
-        <v>0.164021164021164</v>
+        <v>0.1164021164021164</v>
       </c>
       <c r="L17">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="M17">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1527,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>158</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1535,13 +1535,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6</v>
+        <v>0.5818181818181818</v>
       </c>
       <c r="C18">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D18">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1553,19 +1553,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K18">
-        <v>0.1171875</v>
+        <v>0.0963855421686747</v>
       </c>
       <c r="L18">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="M18">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1577,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>113</v>
+        <v>225</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1585,13 +1585,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5966386554621849</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C19">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="D19">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1603,31 +1603,31 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K19">
-        <v>0.1004016064257028</v>
+        <v>0.08771929824561403</v>
       </c>
       <c r="L19">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="M19">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19">
-        <v>224</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1635,13 +1635,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5952380952380952</v>
+        <v>0.5625</v>
       </c>
       <c r="C20">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1653,19 +1653,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K20">
-        <v>0.09677419354838709</v>
+        <v>0.08064516129032258</v>
       </c>
       <c r="L20">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M20">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1677,7 +1677,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1685,13 +1685,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5625</v>
+        <v>0.5476190476190477</v>
       </c>
       <c r="C21">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D21">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1703,19 +1703,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K21">
-        <v>0.08939526730937773</v>
+        <v>0.03634003893575601</v>
       </c>
       <c r="L21">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="M21">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1727,7 +1727,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>1039</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1735,13 +1735,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5428571428571428</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="C22">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D22">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1753,31 +1753,31 @@
         <v>0</v>
       </c>
       <c r="H22">
+        <v>17</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K22">
+        <v>0.02133333333333333</v>
+      </c>
+      <c r="L22">
         <v>16</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="K22">
-        <v>0.04178272980501393</v>
-      </c>
-      <c r="L22">
-        <v>15</v>
-      </c>
       <c r="M22">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N22">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="P22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22">
-        <v>344</v>
+        <v>734</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1785,13 +1785,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5370370370370371</v>
+        <v>0.5126050420168067</v>
       </c>
       <c r="C23">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="D23">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1803,31 +1803,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>25</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K23">
-        <v>0.03114860480207658</v>
-      </c>
-      <c r="L23">
-        <v>48</v>
-      </c>
-      <c r="M23">
-        <v>48</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>1493</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1835,13 +1811,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5272727272727272</v>
+        <v>0.5</v>
       </c>
       <c r="C24">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D24">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1853,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1861,13 +1837,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5111111111111111</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C25">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D25">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1879,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1887,13 +1863,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4898550724637681</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="C26">
-        <v>169</v>
+        <v>30</v>
       </c>
       <c r="D26">
-        <v>169</v>
+        <v>30</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1905,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>176</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1913,13 +1889,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4838709677419355</v>
+        <v>0.4579710144927536</v>
       </c>
       <c r="C27">
-        <v>15</v>
+        <v>158</v>
       </c>
       <c r="D27">
-        <v>15</v>
+        <v>158</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1931,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>16</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1939,13 +1915,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4698795180722892</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C28">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D28">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1957,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1965,13 +1941,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4603174603174603</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C29">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D29">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1983,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1991,13 +1967,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4571428571428571</v>
+        <v>0.4216867469879518</v>
       </c>
       <c r="C30">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D30">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2009,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>19</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2017,13 +1993,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4285714285714285</v>
+        <v>0.4094488188976378</v>
       </c>
       <c r="C31">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="D31">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2035,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>28</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2043,13 +2019,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.4259259259259259</v>
+        <v>0.40625</v>
       </c>
       <c r="C32">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D32">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2061,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2069,13 +2045,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.4102564102564102</v>
+        <v>0.4</v>
       </c>
       <c r="C33">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D33">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2087,7 +2063,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2095,13 +2071,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.4098360655737705</v>
+        <v>0.4</v>
       </c>
       <c r="C34">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D34">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2113,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2121,13 +2097,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3937007874015748</v>
+        <v>0.3953488372093023</v>
       </c>
       <c r="C35">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D35">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2139,7 +2115,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>77</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2147,13 +2123,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.3902439024390244</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="C36">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D36">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2165,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2173,13 +2149,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.3818181818181818</v>
+        <v>0.3877551020408163</v>
       </c>
       <c r="C37">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D37">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2191,7 +2167,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2199,13 +2175,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.3809523809523809</v>
+        <v>0.3789473684210526</v>
       </c>
       <c r="C38">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="D38">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2217,7 +2193,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>26</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2225,13 +2201,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.3789473684210526</v>
+        <v>0.375</v>
       </c>
       <c r="C39">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D39">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2243,7 +2219,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>59</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2251,13 +2227,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.375</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C40">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D40">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2269,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2277,13 +2253,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.3703703703703703</v>
+        <v>0.3392857142857143</v>
       </c>
       <c r="C41">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D41">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2295,7 +2271,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2303,13 +2279,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.35</v>
+        <v>0.3275862068965517</v>
       </c>
       <c r="C42">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D42">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2329,13 +2305,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.3366336633663367</v>
+        <v>0.3258426966292135</v>
       </c>
       <c r="C43">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="D43">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2347,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>134</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2355,13 +2331,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.3333333333333333</v>
+        <v>0.3114754098360656</v>
       </c>
       <c r="C44">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D44">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2373,7 +2349,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2381,13 +2357,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.3258426966292135</v>
+        <v>0.2843601895734597</v>
       </c>
       <c r="C45">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="D45">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2399,7 +2375,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>60</v>
+        <v>151</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2407,13 +2383,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.3203125</v>
+        <v>0.2821782178217822</v>
       </c>
       <c r="C46">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="D46">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2425,7 +2401,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>87</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2433,13 +2409,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.2890995260663507</v>
+        <v>0.28125</v>
       </c>
       <c r="C47">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="D47">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2451,7 +2427,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>150</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2459,13 +2435,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.2857142857142857</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="C48">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D48">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2477,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2485,13 +2461,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.2653061224489796</v>
+        <v>0.2735042735042735</v>
       </c>
       <c r="C49">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D49">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2503,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>72</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2511,13 +2487,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.2586206896551724</v>
+        <v>0.2628865979381443</v>
       </c>
       <c r="C50">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="D50">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2529,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>43</v>
+        <v>143</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2537,13 +2513,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.2577319587628866</v>
+        <v>0.253968253968254</v>
       </c>
       <c r="C51">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="D51">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2555,7 +2531,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>144</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2563,13 +2539,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.2564102564102564</v>
+        <v>0.2388059701492537</v>
       </c>
       <c r="C52">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D52">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2581,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>87</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2615,13 +2591,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.2297297297297297</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="C54">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D54">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2633,7 +2609,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>57</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2641,13 +2617,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.2266666666666667</v>
+        <v>0.2027027027027027</v>
       </c>
       <c r="C55">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D55">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2659,7 +2635,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2667,13 +2643,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.211864406779661</v>
+        <v>0.1868131868131868</v>
       </c>
       <c r="C56">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D56">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2685,7 +2661,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>93</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2693,13 +2669,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.2027027027027027</v>
+        <v>0.1835443037974684</v>
       </c>
       <c r="C57">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="D57">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2711,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>59</v>
+        <v>258</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2719,25 +2695,25 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1920289855072464</v>
+        <v>0.1827637444279346</v>
       </c>
       <c r="C58">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="D58">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58">
-        <v>223</v>
+        <v>550</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2745,25 +2721,25 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1842496285289748</v>
+        <v>0.1759259259259259</v>
       </c>
       <c r="C59">
-        <v>124</v>
+        <v>19</v>
       </c>
       <c r="D59">
-        <v>125</v>
+        <v>19</v>
       </c>
       <c r="E59">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>549</v>
+        <v>89</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2771,13 +2747,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.175</v>
+        <v>0.1752577319587629</v>
       </c>
       <c r="C60">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D60">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2789,7 +2765,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>165</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2797,13 +2773,13 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.1648351648351648</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="C61">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="D61">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -2815,7 +2791,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>76</v>
+        <v>228</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2823,13 +2799,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1613924050632911</v>
+        <v>0.1642857142857143</v>
       </c>
       <c r="C62">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="D62">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2841,7 +2817,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>265</v>
+        <v>117</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2849,13 +2825,13 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.154639175257732</v>
+        <v>0.1610169491525424</v>
       </c>
       <c r="C63">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D63">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -2867,7 +2843,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>82</v>
+        <v>99</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2875,25 +2851,25 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1542056074766355</v>
+        <v>0.1523809523809524</v>
       </c>
       <c r="C64">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="D64">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64">
-        <v>181</v>
+        <v>267</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2901,13 +2877,13 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1487341772151899</v>
+        <v>0.1461538461538462</v>
       </c>
       <c r="C65">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="D65">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -2919,7 +2895,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>269</v>
+        <v>111</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2927,13 +2903,13 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1464968152866242</v>
+        <v>0.145</v>
       </c>
       <c r="C66">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D66">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -2945,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>134</v>
+        <v>171</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2953,13 +2929,13 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.1387665198237885</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C67">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="D67">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -2971,7 +2947,7 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>391</v>
+        <v>150</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2979,13 +2955,13 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.132183908045977</v>
+        <v>0.1355140186915888</v>
       </c>
       <c r="C68">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D68">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -2997,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>302</v>
+        <v>185</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3005,13 +2981,13 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.1314285714285714</v>
+        <v>0.1299559471365639</v>
       </c>
       <c r="C69">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="D69">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -3023,7 +2999,7 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>152</v>
+        <v>395</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3031,13 +3007,13 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.1285714285714286</v>
+        <v>0.1293103448275862</v>
       </c>
       <c r="C70">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="D70">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -3049,7 +3025,7 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>122</v>
+        <v>303</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3057,13 +3033,13 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1171875</v>
+        <v>0.125</v>
       </c>
       <c r="C71">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D71">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -3075,7 +3051,7 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3083,13 +3059,13 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1153846153846154</v>
+        <v>0.1210191082802548</v>
       </c>
       <c r="C72">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D72">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -3101,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>115</v>
+        <v>138</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3109,13 +3085,13 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1129032258064516</v>
+        <v>0.1209677419354839</v>
       </c>
       <c r="C73">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D73">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -3127,7 +3103,7 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3135,13 +3111,13 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1048689138576779</v>
+        <v>0.1161048689138577</v>
       </c>
       <c r="C74">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D74">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -3153,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3161,13 +3137,13 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.1038961038961039</v>
+        <v>0.1145833333333333</v>
       </c>
       <c r="C75">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D75">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -3179,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>138</v>
+        <v>170</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3187,13 +3163,13 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.0958904109589041</v>
+        <v>0.09289617486338798</v>
       </c>
       <c r="C76">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D76">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -3205,7 +3181,7 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>330</v>
+        <v>166</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3213,25 +3189,25 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.09574468085106383</v>
+        <v>0.08900523560209424</v>
       </c>
       <c r="C77">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D77">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E77">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3239,25 +3215,25 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.09375</v>
+        <v>0.0851063829787234</v>
       </c>
       <c r="C78">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D78">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F78">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3265,13 +3241,13 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.08196721311475409</v>
+        <v>0.08493150684931507</v>
       </c>
       <c r="C79">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D79">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -3283,7 +3259,7 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>168</v>
+        <v>334</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3291,13 +3267,13 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.06197183098591549</v>
+        <v>0.075</v>
       </c>
       <c r="C80">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D80">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -3309,7 +3285,7 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>333</v>
+        <v>259</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3317,25 +3293,25 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.05766062602965404</v>
+        <v>0.06754530477759473</v>
       </c>
       <c r="C81">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D81">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E81">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F81">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="G81" t="b">
         <v>1</v>
       </c>
       <c r="H81">
-        <v>572</v>
+        <v>566</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3343,25 +3319,25 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.05357142857142857</v>
+        <v>0.06696428571428571</v>
       </c>
       <c r="C82">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D82">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E82">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F82">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="G82" t="b">
         <v>1</v>
       </c>
       <c r="H82">
-        <v>424</v>
+        <v>418</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3369,25 +3345,25 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.0514018691588785</v>
+        <v>0.06478873239436619</v>
       </c>
       <c r="C83">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D83">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E83">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>0.79</v>
+        <v>1</v>
       </c>
       <c r="G83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83">
-        <v>406</v>
+        <v>332</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3395,13 +3371,13 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.04746835443037975</v>
+        <v>0.05379746835443038</v>
       </c>
       <c r="C84">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D84">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E84">
         <v>0.06</v>
@@ -3413,7 +3389,7 @@
         <v>1</v>
       </c>
       <c r="H84">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3421,25 +3397,25 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.03919089759797725</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C85">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D85">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E85">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="F85">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="G85" t="b">
         <v>1</v>
       </c>
       <c r="H85">
-        <v>760</v>
+        <v>414</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3447,25 +3423,51 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.02756508422664625</v>
+        <v>0.03211009174311927</v>
       </c>
       <c r="C86">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D86">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E86">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F86">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="G86" t="b">
         <v>1</v>
       </c>
       <c r="H86">
-        <v>635</v>
+        <v>633</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B87">
+        <v>0.03168567807351078</v>
+      </c>
+      <c r="C87">
+        <v>25</v>
+      </c>
+      <c r="D87">
+        <v>30</v>
+      </c>
+      <c r="E87">
+        <v>0.17</v>
+      </c>
+      <c r="F87">
+        <v>0.83</v>
+      </c>
+      <c r="G87" t="b">
+        <v>1</v>
+      </c>
+      <c r="H87">
+        <v>764</v>
       </c>
     </row>
   </sheetData>
